--- a/resultsCounting.xlsx
+++ b/resultsCounting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brent Verpaalen\Desktop\School\Leiden\AIDM\CDE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Leiden\AIDM\CDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BA389B4-B1C9-4B08-A2AD-9D991B2691A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168EBC2-B985-44E4-B495-B8EFA382946F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{89B93479-C4CA-4DDB-9F4A-202CC3EBFA33}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
   <si>
     <t>Distinct: 100</t>
   </si>
@@ -225,12 +225,102 @@
   </si>
   <si>
     <t>Relative Approximation Error: 0.2305</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>True Distinct</t>
+  </si>
+  <si>
+    <t>Predicted Distinct</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>Number of hashes per group</t>
+  </si>
+  <si>
+    <t>Distinct: 5000</t>
+  </si>
+  <si>
+    <t>Distinct elements: 4311</t>
+  </si>
+  <si>
+    <t>Median of averages: 4096.0</t>
+  </si>
+  <si>
+    <t>Relative Approximation Error: 0.0499</t>
+  </si>
+  <si>
+    <t>Median of averages: 5802.666666666666</t>
+  </si>
+  <si>
+    <t>Relative Approximation Error: 0.346</t>
+  </si>
+  <si>
+    <t>Relative Approximation Error: 0.544</t>
+  </si>
+  <si>
+    <t>Relative Approximation Error: 0.4252</t>
+  </si>
+  <si>
+    <t>Relative Approximation Error: 0.6627</t>
+  </si>
+  <si>
+    <t>Distinct: 7500</t>
+  </si>
+  <si>
+    <t>Distinct elements: 5506</t>
+  </si>
+  <si>
+    <t>Relative Approximation Error: 0.2561</t>
+  </si>
+  <si>
+    <t>Median of averages: 4608.0</t>
+  </si>
+  <si>
+    <t>Relative Approximation Error: 0.1631</t>
+  </si>
+  <si>
+    <t>Median of averages: 4778.666666666666</t>
+  </si>
+  <si>
+    <t>Relative Approximation Error: 0.1321</t>
+  </si>
+  <si>
+    <t>Median of averages: 6826.666666666666</t>
+  </si>
+  <si>
+    <t>Relative Approximation Error: 0.2399</t>
+  </si>
+  <si>
+    <t>0.2560842717035961</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.18169269887395567</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12279937038382371</t>
+  </si>
+  <si>
+    <t>0.10715583000363241</t>
+  </si>
+  <si>
+    <t>0.14978568833999273</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2398595471606732</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,15 +330,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -256,17 +352,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -277,6 +412,4166 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distincout</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> counting</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Range 7,5k/5506</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$L$24:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2560842717035961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16309480566654558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13221939702143118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2560842717035961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2560842717035961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23992008717762442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8B20-45D0-83D7-B04F2D529219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$M$24:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8B20-45D0-83D7-B04F2D529219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="517261416"/>
+        <c:axId val="517261744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="517261416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hashes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517261744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517261744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RAE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517261416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distincout</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> counting</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Range 10k/9537</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$L$17:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.14102967390164622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35577225542623464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24840096466394043</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30208661004508758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35577225542623464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2304707979448464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-229A-4236-A033-8789595F413B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$M$17:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-229A-4236-A033-8789595F413B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="517261416"/>
+        <c:axId val="517261744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="517261416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hashes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517261744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517261744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RAE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517261416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distincout</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> counting</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Range 5k/4311</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$L$31:$L$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9872419392252378E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9872419392252378E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34609139410809558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54395731848758988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42519137091162146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66272326606355836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B264-4BFE-8CC8-D5422BA9DC3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$M$31:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B264-4BFE-8CC8-D5422BA9DC3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="517261416"/>
+        <c:axId val="517261744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="517261416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hashes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517261744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517261744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RAE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517261416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distincout</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> counting</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>100 experiments</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10k</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$M$17:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-91E8-4A06-8DE4-C6BA03021903}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>7,5k</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$M$24:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-91E8-4A06-8DE4-C6BA03021903}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>5k</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$M$31:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-91E8-4A06-8DE4-C6BA03021903}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="517261416"/>
+        <c:axId val="517261744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="517261416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hashes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517261744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517261744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RAE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517261416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073EBD68-FE6B-4533-8A26-09C5A2AA898B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD968E6-245D-48E0-A414-9F9E2B9BFBB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C949BDF-C47D-407B-9A91-4CB8CD8F94FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0849CC-3C90-484F-9834-13645EA7A36C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01161CDC-1B54-4248-99B5-50F2DD06E0F4}" name="Tabel3" displayName="Tabel3" ref="N1:Q15" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+  <autoFilter ref="N1:Q15" xr:uid="{E88D75A5-431E-4B9D-8AC3-37648CC4322B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1F5B7724-B339-47F8-A14F-1F8AF57397A7}" name="Range" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{AAC039CB-882A-4D94-B85F-260364664E1B}" name="True Distinct" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4B2E7107-AE9B-47B7-89E6-067EEEEC21DA}" name="Predicted Distinct" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E3567FB7-B9DE-4E5E-AD7D-38BA9AB813F9}" name="RAE" dataDxfId="3">
+      <calculatedColumnFormula>SQRT(((O2-P2)/O2)^2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D59D45E1-B1B4-470F-975F-862D9CB629A4}" name="Tabel4" displayName="Tabel4" ref="N17:Q29" totalsRowShown="0">
+  <autoFilter ref="N17:Q29" xr:uid="{FDFAE235-3168-4ABE-B04B-0E26FBE3F6F2}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{98582289-7CB4-45CB-89B8-64008707A139}" name="Number of hashes per group"/>
+    <tableColumn id="2" xr3:uid="{DA8ED1FF-5B6D-41E3-A9BD-FCCFADEE5A47}" name="True Distinct"/>
+    <tableColumn id="3" xr3:uid="{CE35893C-722E-438B-8A98-BE8FA5F03332}" name="Predicted Distinct"/>
+    <tableColumn id="4" xr3:uid="{374DD896-8D68-48C1-969E-F766258C12F4}" name="RAE" dataDxfId="0">
+      <calculatedColumnFormula>SQRT(((O18-P18)/O18)^2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,490 +4871,1471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E3A5E6-7E59-4E1E-AFCE-D2DB7D5DEE29}">
-  <dimension ref="A1:A113"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A113"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1">
+        <v>72</v>
+      </c>
+      <c r="L1" s="1">
+        <f>SQRT(((J1-K1)/J1)^2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1">
+        <v>200</v>
+      </c>
+      <c r="J2" s="1">
+        <v>200</v>
+      </c>
+      <c r="K2" s="1">
+        <v>352</v>
+      </c>
+      <c r="L2" s="1">
+        <f>SQRT(((J2-K2)/J2)^2)</f>
+        <v>0.76</v>
+      </c>
+      <c r="N2" s="1">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>SQRT(((O2-P2)/O2)^2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="1">
+        <v>500</v>
+      </c>
+      <c r="J3" s="1">
+        <v>500</v>
+      </c>
+      <c r="K3" s="1">
+        <v>640</v>
+      </c>
+      <c r="L3" s="1">
+        <f>SQRT(((J3-K3)/J3)^2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N3" s="1">
+        <v>200</v>
+      </c>
+      <c r="O3" s="1">
+        <v>200</v>
+      </c>
+      <c r="P3" s="1">
+        <v>352</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>SQRT(((O3-P3)/O3)^2)</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>768</v>
+      </c>
+      <c r="L4" s="1">
+        <f>SQRT(((J4-K4)/J4)^2)</f>
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>500</v>
+      </c>
+      <c r="O4" s="1">
+        <v>500</v>
+      </c>
+      <c r="P4" s="1">
+        <v>640</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>SQRT(((O4-P4)/O4)^2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6323</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8192</v>
+      </c>
+      <c r="L5" s="1">
+        <f>SQRT(((J5-K5)/J5)^2)</f>
+        <v>0.2955875375612842</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P5" s="1">
+        <v>768</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>SQRT(((O5-P5)/O5)^2)</f>
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7908</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8704</v>
+      </c>
+      <c r="L6" s="1">
+        <f>SQRT(((J6-K6)/J6)^2)</f>
+        <v>0.10065756196256954</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6323</v>
+      </c>
+      <c r="P6" s="1">
+        <v>8192</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>SQRT(((O6-P6)/O6)^2)</f>
+        <v>0.2955875375612842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1">
+        <v>30000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8483</v>
+      </c>
+      <c r="K7" s="1">
+        <v>29184</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SQRT(((J7-K7)/J7)^2)</f>
+        <v>2.4402923494046918</v>
+      </c>
+      <c r="N7" s="1">
+        <v>20000</v>
+      </c>
+      <c r="O7" s="1">
+        <v>7908</v>
+      </c>
+      <c r="P7" s="1">
+        <v>8704</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>SQRT(((O7-P7)/O7)^2)</f>
+        <v>0.10065756196256954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8899</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9728</v>
+      </c>
+      <c r="L8" s="1">
+        <f>SQRT(((J8-K8)/J8)^2)</f>
+        <v>9.3156534442072142E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>30000</v>
+      </c>
+      <c r="O8" s="1">
+        <v>8483</v>
+      </c>
+      <c r="P8" s="1">
+        <v>29184</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>SQRT(((O8-P8)/O8)^2)</f>
+        <v>2.4402923494046918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9098</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8192</v>
+      </c>
+      <c r="L9" s="1">
+        <f>SQRT(((J9-K9)/J9)^2)</f>
+        <v>9.9582325785887008E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>40000</v>
+      </c>
+      <c r="O9" s="1">
+        <v>8899</v>
+      </c>
+      <c r="P9" s="1">
+        <v>9728</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>SQRT(((O9-P9)/O9)^2)</f>
+        <v>9.3156534442072142E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="1">
+        <v>60000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9221</v>
+      </c>
+      <c r="K10" s="1">
+        <v>9216</v>
+      </c>
+      <c r="L10" s="1">
+        <f>SQRT(((J10-K10)/J10)^2)</f>
+        <v>5.4224053790261355E-4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>50000</v>
+      </c>
+      <c r="O10" s="1">
+        <v>9098</v>
+      </c>
+      <c r="P10" s="1">
+        <v>8192</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>SQRT(((O10-P10)/O10)^2)</f>
+        <v>9.9582325785887008E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="1">
+        <v>70000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9374</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9216</v>
+      </c>
+      <c r="L11" s="1">
+        <f>SQRT(((J11-K11)/J11)^2)</f>
+        <v>1.685513121399616E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>60000</v>
+      </c>
+      <c r="O11" s="1">
+        <v>9221</v>
+      </c>
+      <c r="P11" s="1">
+        <v>9216</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>SQRT(((O11-P11)/O11)^2)</f>
+        <v>5.4224053790261355E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>80000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>9431</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6144</v>
+      </c>
+      <c r="L12" s="1">
+        <f>SQRT(((J12-K12)/J12)^2)</f>
+        <v>0.34853143887180577</v>
+      </c>
+      <c r="N12" s="1">
+        <v>70000</v>
+      </c>
+      <c r="O12" s="1">
+        <v>9374</v>
+      </c>
+      <c r="P12" s="1">
+        <v>9216</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>SQRT(((O12-P12)/O12)^2)</f>
+        <v>1.685513121399616E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1">
+        <v>90000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9481</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5623</v>
+      </c>
+      <c r="L13" s="1">
+        <f>SQRT(((J13-K13)/J13)^2)</f>
+        <v>0.40691910136061599</v>
+      </c>
+      <c r="N13" s="1">
+        <v>80000</v>
+      </c>
+      <c r="O13" s="1">
+        <v>9431</v>
+      </c>
+      <c r="P13" s="1">
+        <v>6144</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>SQRT(((O13-P13)/O13)^2)</f>
+        <v>0.34853143887180577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>9537</v>
+      </c>
+      <c r="K14" s="1">
+        <v>8192</v>
+      </c>
+      <c r="L14" s="1">
+        <f>SQRT(((J14-K14)/J14)^2)</f>
+        <v>0.14102967390164622</v>
+      </c>
+      <c r="N14" s="1">
+        <v>90000</v>
+      </c>
+      <c r="O14" s="1">
+        <v>9481</v>
+      </c>
+      <c r="P14" s="1">
+        <v>5623</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>SQRT(((O14-P14)/O14)^2)</f>
+        <v>0.40691910136061599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O15" s="1">
+        <v>9537</v>
+      </c>
+      <c r="P15" s="1">
+        <v>8192</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>SQRT(((O15-P15)/O15)^2)</f>
+        <v>0.14102967390164622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>9537</v>
+      </c>
+      <c r="K17">
+        <v>8192</v>
+      </c>
+      <c r="L17" s="4">
+        <f>SQRT(((J17-K17)/J17)^2)</f>
+        <v>0.14102967390164622</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="N17" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>9537</v>
+      </c>
+      <c r="K18">
+        <v>6144</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" ref="L18:L22" si="0">SQRT(((J18-K18)/J18)^2)</f>
+        <v>0.35577225542623464</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>9537</v>
+      </c>
+      <c r="P18">
+        <v>8192</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>SQRT(((O18-P18)/O18)^2)</f>
+        <v>0.14102967390164622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>9537</v>
+      </c>
+      <c r="K19">
+        <v>7168</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24840096466394043</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>9537</v>
+      </c>
+      <c r="P19">
+        <v>6144</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" ref="Q19:Q23" si="1">SQRT(((O19-P19)/O19)^2)</f>
+        <v>0.35577225542623464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>9537</v>
+      </c>
+      <c r="K20">
+        <v>6656</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30208661004508758</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>9537</v>
+      </c>
+      <c r="P20">
+        <v>7168</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24840096466394043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>9537</v>
+      </c>
+      <c r="K21">
+        <v>6144</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35577225542623464</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>9537</v>
+      </c>
+      <c r="P21">
+        <v>6656</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30208661004508758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>9537</v>
+      </c>
+      <c r="K22">
+        <v>7339</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2304707979448464</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>9537</v>
+      </c>
+      <c r="P22">
+        <v>6144</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35577225542623464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23">
+        <v>7500</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="O23">
+        <v>9537</v>
+      </c>
+      <c r="P23">
+        <v>7339</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2304707979448464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>5506</v>
+      </c>
+      <c r="K24">
+        <v>4096</v>
+      </c>
+      <c r="L24" s="4">
+        <f>SQRT(((J24-K24)/J24)^2)</f>
+        <v>0.2560842717035961</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="Q24" s="1" t="e">
+        <f t="shared" ref="Q24:Q29" si="2">SQRT(((O24-P24)/O24)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>5506</v>
+      </c>
+      <c r="K25">
+        <v>4608</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" ref="L25:L29" si="3">SQRT(((J25-K25)/J25)^2)</f>
+        <v>0.16309480566654558</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.156</v>
+      </c>
+      <c r="Q25" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>5506</v>
+      </c>
+      <c r="K26">
+        <v>4778</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="3"/>
+        <v>0.13221939702143118</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.109</v>
+      </c>
+      <c r="Q26" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>5506</v>
+      </c>
+      <c r="K27">
+        <v>4096</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="3"/>
+        <v>0.2560842717035961</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="Q27" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>5506</v>
+      </c>
+      <c r="K28">
+        <v>4096</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="3"/>
+        <v>0.2560842717035961</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Q28" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>5506</v>
+      </c>
+      <c r="K29">
+        <v>6827</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="3"/>
+        <v>0.23992008717762442</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="Q29" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>4311</v>
+      </c>
+      <c r="K31">
+        <v>4096</v>
+      </c>
+      <c r="L31" s="4">
+        <f>SQRT(((J31-K31)/J31)^2)</f>
+        <v>4.9872419392252378E-2</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>4311</v>
+      </c>
+      <c r="K32">
+        <v>4096</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" ref="L32:L36" si="4">SQRT(((J32-K32)/J32)^2)</f>
+        <v>4.9872419392252378E-2</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>4311</v>
+      </c>
+      <c r="K33">
+        <v>5803</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="4"/>
+        <v>0.34609139410809558</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>4311</v>
+      </c>
+      <c r="K34">
+        <v>6656</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="4"/>
+        <v>0.54395731848758988</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>4311</v>
+      </c>
+      <c r="K35">
+        <v>6144</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="4"/>
+        <v>0.42519137091162146</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>4311</v>
+      </c>
+      <c r="K36">
+        <v>7168</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66272326606355836</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="E77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>64</v>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/resultsCounting.xlsx
+++ b/resultsCounting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Leiden\AIDM\CDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168EBC2-B985-44E4-B495-B8EFA382946F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8AC8EB-B31B-4103-B488-799042CFABAA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{89B93479-C4CA-4DDB-9F4A-202CC3EBFA33}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
   <si>
     <t>Distinct: 100</t>
   </si>
@@ -227,21 +227,6 @@
     <t>Relative Approximation Error: 0.2305</t>
   </si>
   <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>True Distinct</t>
-  </si>
-  <si>
-    <t>Predicted Distinct</t>
-  </si>
-  <si>
-    <t>RAE</t>
-  </si>
-  <si>
-    <t>Number of hashes per group</t>
-  </si>
-  <si>
     <t>Distinct: 5000</t>
   </si>
   <si>
@@ -294,24 +279,6 @@
   </si>
   <si>
     <t>Relative Approximation Error: 0.2399</t>
-  </si>
-  <si>
-    <t>0.2560842717035961</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.18169269887395567</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.12279937038382371</t>
-  </si>
-  <si>
-    <t>0.10715583000363241</t>
-  </si>
-  <si>
-    <t>0.14978568833999273</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2398595471606732</t>
   </si>
 </sst>
 </file>
@@ -330,21 +297,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -352,56 +313,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1537,6 +1465,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2052,6 +1998,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4393,16 +4357,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>87087</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>391887</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144916</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4429,16 +4393,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1224642</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4467,16 +4431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1483179</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>46265</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>103413</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4505,16 +4469,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>54430</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>359230</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8164</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4542,36 +4506,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01161CDC-1B54-4248-99B5-50F2DD06E0F4}" name="Tabel3" displayName="Tabel3" ref="N1:Q15" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="N1:Q15" xr:uid="{E88D75A5-431E-4B9D-8AC3-37648CC4322B}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1F5B7724-B339-47F8-A14F-1F8AF57397A7}" name="Range" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{AAC039CB-882A-4D94-B85F-260364664E1B}" name="True Distinct" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{4B2E7107-AE9B-47B7-89E6-067EEEEC21DA}" name="Predicted Distinct" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E3567FB7-B9DE-4E5E-AD7D-38BA9AB813F9}" name="RAE" dataDxfId="3">
-      <calculatedColumnFormula>SQRT(((O2-P2)/O2)^2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D59D45E1-B1B4-470F-975F-862D9CB629A4}" name="Tabel4" displayName="Tabel4" ref="N17:Q29" totalsRowShown="0">
-  <autoFilter ref="N17:Q29" xr:uid="{FDFAE235-3168-4ABE-B04B-0E26FBE3F6F2}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{98582289-7CB4-45CB-89B8-64008707A139}" name="Number of hashes per group"/>
-    <tableColumn id="2" xr3:uid="{DA8ED1FF-5B6D-41E3-A9BD-FCCFADEE5A47}" name="True Distinct"/>
-    <tableColumn id="3" xr3:uid="{CE35893C-722E-438B-8A98-BE8FA5F03332}" name="Predicted Distinct"/>
-    <tableColumn id="4" xr3:uid="{374DD896-8D68-48C1-969E-F766258C12F4}" name="RAE" dataDxfId="0">
-      <calculatedColumnFormula>SQRT(((O18-P18)/O18)^2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4871,21 +4805,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E3A5E6-7E59-4E1E-AFCE-D2DB7D5DEE29}">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4905,20 +4836,47 @@
         <f>SQRT(((J1-K1)/J1)^2)</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N1" s="5">
+        <v>100</v>
+      </c>
+      <c r="O1" s="5">
+        <v>1000</v>
+      </c>
+      <c r="P1" s="6">
+        <v>10000</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>100000</v>
+      </c>
+      <c r="R1" s="5">
+        <v>200000</v>
+      </c>
+      <c r="S1" s="5">
+        <v>300000</v>
+      </c>
+      <c r="T1" s="5">
+        <v>400000</v>
+      </c>
+      <c r="U1" s="5">
+        <v>500000</v>
+      </c>
+      <c r="V1" s="5">
+        <v>600000</v>
+      </c>
+      <c r="W1" s="5">
+        <v>700000</v>
+      </c>
+      <c r="X1" s="5">
+        <v>800000</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>900000</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4938,21 +4896,47 @@
         <f>SQRT(((J2-K2)/J2)^2)</f>
         <v>0.76</v>
       </c>
-      <c r="N2" s="1">
-        <v>100</v>
-      </c>
-      <c r="O2" s="1">
-        <v>100</v>
-      </c>
-      <c r="P2" s="1">
-        <v>72</v>
-      </c>
-      <c r="Q2" s="1">
-        <f>SQRT(((O2-P2)/O2)^2)</f>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N2" s="3">
+        <v>0.35999999999999899</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.35220623121935701</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.141029673901646</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.16177222961219601</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0.16840929854837</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.24259277985640601</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.173777105395864</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.17352703793381699</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0.175025176233635</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0.58780315990741605</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0.58813474107591701</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0.17668341708542701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4972,21 +4956,47 @@
         <f>SQRT(((J3-K3)/J3)^2)</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="N3" s="1">
-        <v>200</v>
-      </c>
-      <c r="O3" s="1">
-        <v>200</v>
-      </c>
-      <c r="P3" s="1">
-        <v>352</v>
-      </c>
-      <c r="Q3" s="1">
-        <f>SQRT(((O3-P3)/O3)^2)</f>
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" s="3">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.26076229637830101</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.28061235189262801</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.108462089430062</v>
+      </c>
+      <c r="S3" s="3">
+        <v>7.0063952898182902E-2</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.27173627262615002</v>
+      </c>
+      <c r="U3" s="3">
+        <v>5.6802824004034198E-2</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.27683615819209001</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.25236656596173201</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0.397162121364596</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0.39249874308697802</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.10532663316582901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5006,21 +5016,47 @@
         <f>SQRT(((J4-K4)/J4)^2)</f>
         <v>0.23200000000000001</v>
       </c>
-      <c r="N4" s="1">
-        <v>500</v>
-      </c>
-      <c r="O4" s="1">
-        <v>500</v>
-      </c>
-      <c r="P4" s="1">
-        <v>640</v>
-      </c>
-      <c r="Q4" s="1">
-        <f>SQRT(((O4-P4)/O4)^2)</f>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="3">
+        <v>1.64533333333333</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.31178238178079998</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.26629617979098902</v>
+      </c>
+      <c r="R4" s="3">
+        <v>7.7028548040519798E-2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>8.8153486955639002E-2</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.27365759935281597</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.128364430996806</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.18041431261770199</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.23689828801611201</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.29583039817516998</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0.34101558572146801</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.17325293132328301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5040,21 +5076,47 @@
         <f>SQRT(((J5-K5)/J5)^2)</f>
         <v>0.2955875375612842</v>
       </c>
-      <c r="N5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P5" s="1">
-        <v>768</v>
-      </c>
-      <c r="Q5" s="1">
-        <f>SQRT(((O5-P5)/O5)^2)</f>
-        <v>0.23200000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N5" s="3">
+        <v>2.032</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.1072</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.40895144709789599</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.25376952920205498</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.12941778368975701</v>
+      </c>
+      <c r="S5" s="3">
+        <v>8.5250228403207701E-2</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.221296389928203</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.138033282904689</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.18531073446327601</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.20596173212487401</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.22713092482640601</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.23290095525389601</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.121447236180904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I6" s="1">
         <v>20000</v>
       </c>
@@ -5068,21 +5130,47 @@
         <f>SQRT(((J6-K6)/J6)^2)</f>
         <v>0.10065756196256954</v>
       </c>
-      <c r="N6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="O6" s="1">
-        <v>6323</v>
-      </c>
-      <c r="P6" s="1">
-        <v>8192</v>
-      </c>
-      <c r="Q6" s="1">
-        <f>SQRT(((O6-P6)/O6)^2)</f>
-        <v>0.2955875375612842</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="3">
+        <v>2.1967999999999899</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.19968</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.41461331646370297</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.28705462933836601</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.121035505985879</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.121417115013704</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.27188593386591098</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.14458900655572299</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.149152542372881</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.18126888217522599</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.33627855489584302</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0.27305781799899398</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>8.9873366834170798E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5102,21 +5190,47 @@
         <f>SQRT(((J7-K7)/J7)^2)</f>
         <v>2.4402923494046918</v>
       </c>
-      <c r="N7" s="1">
-        <v>20000</v>
-      </c>
-      <c r="O7" s="1">
-        <v>7908</v>
-      </c>
-      <c r="P7" s="1">
-        <v>8704</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>SQRT(((O7-P7)/O7)^2)</f>
-        <v>0.10065756196256954</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="O7" s="3">
+        <v>8.7999999999999898E-2</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.430544572723917</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.23050574953689101</v>
+      </c>
+      <c r="R7" s="3">
+        <v>9.1919915413213205E-2</v>
+      </c>
+      <c r="S7" s="3">
+        <v>6.4460460866916994E-2</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.31162571207064999</v>
+      </c>
+      <c r="U7" s="3">
+        <v>4.9991595226088398E-2</v>
+      </c>
+      <c r="V7" s="3">
+        <v>7.0217917675544694E-2</v>
+      </c>
+      <c r="W7" s="3">
+        <v>7.1903323262839797E-2</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0.192781188152024</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.17626948215183499</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>2.23115577889447E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -5136,21 +5250,12 @@
         <f>SQRT(((J8-K8)/J8)^2)</f>
         <v>9.3156534442072142E-2</v>
       </c>
-      <c r="N8" s="1">
-        <v>30000</v>
-      </c>
-      <c r="O8" s="1">
-        <v>8483</v>
-      </c>
-      <c r="P8" s="1">
-        <v>29184</v>
-      </c>
-      <c r="Q8" s="1">
-        <f>SQRT(((O8-P8)/O8)^2)</f>
-        <v>2.4402923494046918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5170,21 +5275,8 @@
         <f>SQRT(((J9-K9)/J9)^2)</f>
         <v>9.9582325785887008E-2</v>
       </c>
-      <c r="N9" s="1">
-        <v>40000</v>
-      </c>
-      <c r="O9" s="1">
-        <v>8899</v>
-      </c>
-      <c r="P9" s="1">
-        <v>9728</v>
-      </c>
-      <c r="Q9" s="1">
-        <f>SQRT(((O9-P9)/O9)^2)</f>
-        <v>9.3156534442072142E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5204,21 +5296,8 @@
         <f>SQRT(((J10-K10)/J10)^2)</f>
         <v>5.4224053790261355E-4</v>
       </c>
-      <c r="N10" s="1">
-        <v>50000</v>
-      </c>
-      <c r="O10" s="1">
-        <v>9098</v>
-      </c>
-      <c r="P10" s="1">
-        <v>8192</v>
-      </c>
-      <c r="Q10" s="1">
-        <f>SQRT(((O10-P10)/O10)^2)</f>
-        <v>9.9582325785887008E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5238,21 +5317,8 @@
         <f>SQRT(((J11-K11)/J11)^2)</f>
         <v>1.685513121399616E-2</v>
       </c>
-      <c r="N11" s="1">
-        <v>60000</v>
-      </c>
-      <c r="O11" s="1">
-        <v>9221</v>
-      </c>
-      <c r="P11" s="1">
-        <v>9216</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>SQRT(((O11-P11)/O11)^2)</f>
-        <v>5.4224053790261355E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I12" s="1">
         <v>80000</v>
       </c>
@@ -5266,21 +5332,8 @@
         <f>SQRT(((J12-K12)/J12)^2)</f>
         <v>0.34853143887180577</v>
       </c>
-      <c r="N12" s="1">
-        <v>70000</v>
-      </c>
-      <c r="O12" s="1">
-        <v>9374</v>
-      </c>
-      <c r="P12" s="1">
-        <v>9216</v>
-      </c>
-      <c r="Q12" s="1">
-        <f>SQRT(((O12-P12)/O12)^2)</f>
-        <v>1.685513121399616E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5300,21 +5353,8 @@
         <f>SQRT(((J13-K13)/J13)^2)</f>
         <v>0.40691910136061599</v>
       </c>
-      <c r="N13" s="1">
-        <v>80000</v>
-      </c>
-      <c r="O13" s="1">
-        <v>9431</v>
-      </c>
-      <c r="P13" s="1">
-        <v>6144</v>
-      </c>
-      <c r="Q13" s="1">
-        <f>SQRT(((O13-P13)/O13)^2)</f>
-        <v>0.34853143887180577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -5334,42 +5374,16 @@
         <f>SQRT(((J14-K14)/J14)^2)</f>
         <v>0.14102967390164622</v>
       </c>
-      <c r="N14" s="1">
-        <v>90000</v>
-      </c>
-      <c r="O14" s="1">
-        <v>9481</v>
-      </c>
-      <c r="P14" s="1">
-        <v>5623</v>
-      </c>
-      <c r="Q14" s="1">
-        <f>SQRT(((O14-P14)/O14)^2)</f>
-        <v>0.40691910136061599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="1">
-        <v>100000</v>
-      </c>
-      <c r="O15" s="1">
-        <v>9537</v>
-      </c>
-      <c r="P15" s="1">
-        <v>8192</v>
-      </c>
-      <c r="Q15" s="1">
-        <f>SQRT(((O15-P15)/O15)^2)</f>
-        <v>0.14102967390164622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -5379,8 +5393,10 @@
       <c r="I16">
         <v>10000</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5396,27 +5412,22 @@
       <c r="K17">
         <v>8192</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <f>SQRT(((J17-K17)/J17)^2)</f>
         <v>0.14102967390164622</v>
       </c>
       <c r="M17" s="1">
         <v>0.35199999999999998</v>
       </c>
-      <c r="N17" t="s">
-        <v>69</v>
-      </c>
-      <c r="O17" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I18">
         <v>2</v>
       </c>
@@ -5426,28 +5437,22 @@
       <c r="K18">
         <v>6144</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <f t="shared" ref="L18:L22" si="0">SQRT(((J18-K18)/J18)^2)</f>
         <v>0.35577225542623464</v>
       </c>
       <c r="M18" s="1">
         <v>0.23899999999999999</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>9537</v>
-      </c>
-      <c r="P18">
-        <v>8192</v>
-      </c>
-      <c r="Q18" s="1">
-        <f>SQRT(((O18-P18)/O18)^2)</f>
-        <v>0.14102967390164622</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -5463,28 +5468,22 @@
       <c r="K19">
         <v>7168</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="2">
         <f t="shared" si="0"/>
         <v>0.24840096466394043</v>
       </c>
       <c r="M19" s="1">
         <v>0.28499999999999998</v>
       </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="O19">
-        <v>9537</v>
-      </c>
-      <c r="P19">
-        <v>6144</v>
-      </c>
-      <c r="Q19" s="1">
-        <f t="shared" ref="Q19:Q23" si="1">SQRT(((O19-P19)/O19)^2)</f>
-        <v>0.35577225542623464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -5500,28 +5499,22 @@
       <c r="K20">
         <v>6656</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="2">
         <f t="shared" si="0"/>
         <v>0.30208661004508758</v>
       </c>
       <c r="M20" s="1">
         <v>0.33900000000000002</v>
       </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>9537</v>
-      </c>
-      <c r="P20">
-        <v>7168</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="1"/>
-        <v>0.24840096466394043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -5537,28 +5530,22 @@
       <c r="K21">
         <v>6144</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <f t="shared" si="0"/>
         <v>0.35577225542623464</v>
       </c>
       <c r="M21" s="1">
         <v>0.38400000000000001</v>
       </c>
-      <c r="N21">
-        <v>4</v>
-      </c>
-      <c r="O21">
-        <v>9537</v>
-      </c>
-      <c r="P21">
-        <v>6656</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="1"/>
-        <v>0.30208661004508758</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -5574,28 +5561,22 @@
       <c r="K22">
         <v>7339</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="2">
         <f t="shared" si="0"/>
         <v>0.2304707979448464</v>
       </c>
       <c r="M22" s="1">
         <v>0.43099999999999999</v>
       </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
-      <c r="O22">
-        <v>9537</v>
-      </c>
-      <c r="P22">
-        <v>6144</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="1"/>
-        <v>0.35577225542623464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -5605,21 +5586,8 @@
       <c r="I23">
         <v>7500</v>
       </c>
-      <c r="N23">
-        <v>6</v>
-      </c>
-      <c r="O23">
-        <v>9537</v>
-      </c>
-      <c r="P23">
-        <v>7339</v>
-      </c>
-      <c r="Q23" s="1">
-        <f t="shared" si="1"/>
-        <v>0.2304707979448464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I24">
         <v>1</v>
       </c>
@@ -5629,19 +5597,24 @@
       <c r="K24">
         <v>4096</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="2">
         <f>SQRT(((J24-K24)/J24)^2)</f>
         <v>0.2560842717035961</v>
       </c>
       <c r="M24" s="1">
         <v>0.25600000000000001</v>
       </c>
-      <c r="Q24" s="1" t="e">
-        <f t="shared" ref="Q24:Q29" si="2">SQRT(((O24-P24)/O24)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N24" s="4"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -5657,19 +5630,22 @@
       <c r="K25">
         <v>4608</v>
       </c>
-      <c r="L25" s="4">
-        <f t="shared" ref="L25:L29" si="3">SQRT(((J25-K25)/J25)^2)</f>
+      <c r="L25" s="2">
+        <f t="shared" ref="L25:L29" si="1">SQRT(((J25-K25)/J25)^2)</f>
         <v>0.16309480566654558</v>
       </c>
       <c r="M25" s="1">
         <v>0.156</v>
       </c>
-      <c r="Q25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -5685,19 +5661,22 @@
       <c r="K26">
         <v>4778</v>
       </c>
-      <c r="L26" s="4">
-        <f t="shared" si="3"/>
+      <c r="L26" s="2">
+        <f t="shared" si="1"/>
         <v>0.13221939702143118</v>
       </c>
       <c r="M26" s="1">
         <v>0.109</v>
       </c>
-      <c r="Q26" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -5713,19 +5692,22 @@
       <c r="K27">
         <v>4096</v>
       </c>
-      <c r="L27" s="4">
-        <f t="shared" si="3"/>
+      <c r="L27" s="2">
+        <f t="shared" si="1"/>
         <v>0.2560842717035961</v>
       </c>
       <c r="M27" s="1">
         <v>0.121</v>
       </c>
-      <c r="Q27" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -5741,19 +5723,22 @@
       <c r="K28">
         <v>4096</v>
       </c>
-      <c r="L28" s="4">
-        <f t="shared" si="3"/>
+      <c r="L28" s="2">
+        <f t="shared" si="1"/>
         <v>0.2560842717035961</v>
       </c>
       <c r="M28" s="1">
         <v>0.13500000000000001</v>
       </c>
-      <c r="Q28" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -5769,24 +5754,27 @@
       <c r="K29">
         <v>6827</v>
       </c>
-      <c r="L29" s="4">
-        <f t="shared" si="3"/>
+      <c r="L29" s="2">
+        <f t="shared" si="1"/>
         <v>0.23992008717762442</v>
       </c>
       <c r="M29" s="1">
         <v>0.24</v>
       </c>
-      <c r="Q29" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I30">
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -5802,15 +5790,15 @@
       <c r="K31">
         <v>4096</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="2">
         <f>SQRT(((J31-K31)/J31)^2)</f>
         <v>4.9872419392252378E-2</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -5826,13 +5814,14 @@
       <c r="K32">
         <v>4096</v>
       </c>
-      <c r="L32" s="4">
-        <f t="shared" ref="L32:L36" si="4">SQRT(((J32-K32)/J32)^2)</f>
+      <c r="L32" s="2">
+        <f t="shared" ref="L32:L36" si="2">SQRT(((J32-K32)/J32)^2)</f>
         <v>4.9872419392252378E-2</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="M32">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5850,12 +5839,12 @@
       <c r="K33">
         <v>5803</v>
       </c>
-      <c r="L33" s="4">
-        <f t="shared" si="4"/>
+      <c r="L33" s="2">
+        <f t="shared" si="2"/>
         <v>0.34609139410809558</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>90</v>
+      <c r="M33">
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -5874,12 +5863,12 @@
       <c r="K34">
         <v>6656</v>
       </c>
-      <c r="L34" s="4">
-        <f t="shared" si="4"/>
+      <c r="L34" s="2">
+        <f t="shared" si="2"/>
         <v>0.54395731848758988</v>
       </c>
-      <c r="N34" s="3" t="s">
-        <v>91</v>
+      <c r="M34">
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -5898,12 +5887,12 @@
       <c r="K35">
         <v>6144</v>
       </c>
-      <c r="L35" s="4">
-        <f t="shared" si="4"/>
+      <c r="L35" s="2">
+        <f t="shared" si="2"/>
         <v>0.42519137091162146</v>
       </c>
-      <c r="N35" s="2" t="s">
-        <v>92</v>
+      <c r="M35">
+        <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -5916,12 +5905,12 @@
       <c r="K36">
         <v>7168</v>
       </c>
-      <c r="L36" s="4">
-        <f t="shared" si="4"/>
+      <c r="L36" s="2">
+        <f t="shared" si="2"/>
         <v>0.66272326606355836</v>
       </c>
-      <c r="N36" s="3" t="s">
-        <v>93</v>
+      <c r="M36">
+        <v>0.66300000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -5929,7 +5918,7 @@
         <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -5945,7 +5934,7 @@
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -5953,15 +5942,16 @@
         <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -5969,7 +5959,7 @@
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -5985,7 +5975,7 @@
         <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -5993,7 +5983,7 @@
         <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -6001,18 +5991,21 @@
         <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -6020,79 +6013,80 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -6100,20 +6094,20 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -6121,7 +6115,7 @@
         <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -6129,7 +6123,7 @@
         <v>42</v>
       </c>
       <c r="E67" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -6145,7 +6139,7 @@
         <v>43</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -6153,7 +6147,7 @@
         <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -6161,7 +6155,7 @@
         <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -6169,7 +6163,7 @@
         <v>46</v>
       </c>
       <c r="E73" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -6185,7 +6179,7 @@
         <v>47</v>
       </c>
       <c r="E75" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -6193,7 +6187,7 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6201,12 +6195,12 @@
         <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -6216,22 +6210,22 @@
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.25">
@@ -6241,22 +6235,22 @@
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.25">
@@ -6266,7 +6260,7 @@
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.25">
@@ -6276,12 +6270,12 @@
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
@@ -6291,7 +6285,7 @@
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">
@@ -6301,12 +6295,12 @@
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.25">
@@ -6316,7 +6310,7 @@
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
@@ -6326,16 +6320,12 @@
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-  </tableParts>
 </worksheet>
 </file>